--- a/pqEndToEnd/src/main/java/myproperty/PQ_lead.xlsx
+++ b/pqEndToEnd/src/main/java/myproperty/PQ_lead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BADCFDC-6D96-486A-943A-4AFCBBEBAC1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1698C207-56C5-4211-A195-99C250289B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15405" windowHeight="11340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15435" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Aditya Yadav - Personal View" guid="{13F04E95-C36C-4217-8F82-B9300EBD1E83}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Mobile_number</t>
   </si>
@@ -60,453 +60,6 @@
   </si>
   <si>
     <t>u_user_id</t>
-  </si>
-  <si>
-    <t>11999477 6161686919</t>
-  </si>
-  <si>
-    <t>11999502</t>
-  </si>
-  <si>
-    <t>6161622001</t>
-  </si>
-  <si>
-    <t>11999506</t>
-  </si>
-  <si>
-    <t>6161510959</t>
-  </si>
-  <si>
-    <t>11999507</t>
-  </si>
-  <si>
-    <t>6161916180</t>
-  </si>
-  <si>
-    <t>11999508</t>
-  </si>
-  <si>
-    <t>6161510800</t>
-  </si>
-  <si>
-    <t>11999509</t>
-  </si>
-  <si>
-    <t>6161888416</t>
-  </si>
-  <si>
-    <t>11999510</t>
-  </si>
-  <si>
-    <t>6161757443</t>
-  </si>
-  <si>
-    <t>11999537</t>
-  </si>
-  <si>
-    <t>6161436239</t>
-  </si>
-  <si>
-    <t>11999538</t>
-  </si>
-  <si>
-    <t>6161631737</t>
-  </si>
-  <si>
-    <t>11999539</t>
-  </si>
-  <si>
-    <t>6161720074</t>
-  </si>
-  <si>
-    <t>11999540</t>
-  </si>
-  <si>
-    <t>6161512345</t>
-  </si>
-  <si>
-    <t>11999541</t>
-  </si>
-  <si>
-    <t>6161308112</t>
-  </si>
-  <si>
-    <t>11999543</t>
-  </si>
-  <si>
-    <t>6161775659</t>
-  </si>
-  <si>
-    <t>11999546</t>
-  </si>
-  <si>
-    <t>6161003484</t>
-  </si>
-  <si>
-    <t>11999547</t>
-  </si>
-  <si>
-    <t>6161656192</t>
-  </si>
-  <si>
-    <t>11999548</t>
-  </si>
-  <si>
-    <t>6161258421</t>
-  </si>
-  <si>
-    <t>11999552</t>
-  </si>
-  <si>
-    <t>6161958263</t>
-  </si>
-  <si>
-    <t>11999554</t>
-  </si>
-  <si>
-    <t>6161299299</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>11999556</t>
-  </si>
-  <si>
-    <t>6161857184</t>
-  </si>
-  <si>
-    <t>11999557</t>
-  </si>
-  <si>
-    <t>6161906774</t>
-  </si>
-  <si>
-    <t>11999558</t>
-  </si>
-  <si>
-    <t>6161977761</t>
-  </si>
-  <si>
-    <t>11999562</t>
-  </si>
-  <si>
-    <t>6161000958</t>
-  </si>
-  <si>
-    <t>11999563</t>
-  </si>
-  <si>
-    <t>6161428439</t>
-  </si>
-  <si>
-    <t>11999564</t>
-  </si>
-  <si>
-    <t>6161769554</t>
-  </si>
-  <si>
-    <t>11999580</t>
-  </si>
-  <si>
-    <t>6161965696</t>
-  </si>
-  <si>
-    <t>11999582</t>
-  </si>
-  <si>
-    <t>6161328872</t>
-  </si>
-  <si>
-    <t>11999583</t>
-  </si>
-  <si>
-    <t>6161675927</t>
-  </si>
-  <si>
-    <t>11999584</t>
-  </si>
-  <si>
-    <t>6161990737</t>
-  </si>
-  <si>
-    <t>11999585</t>
-  </si>
-  <si>
-    <t>6161341789</t>
-  </si>
-  <si>
-    <t>11999586</t>
-  </si>
-  <si>
-    <t>6161963632</t>
-  </si>
-  <si>
-    <t>11999587</t>
-  </si>
-  <si>
-    <t>6161352764</t>
-  </si>
-  <si>
-    <t>11999588</t>
-  </si>
-  <si>
-    <t>6161895280</t>
-  </si>
-  <si>
-    <t>11999589</t>
-  </si>
-  <si>
-    <t>6161694601</t>
-  </si>
-  <si>
-    <t>11999590</t>
-  </si>
-  <si>
-    <t>6161446650</t>
-  </si>
-  <si>
-    <t>11999591</t>
-  </si>
-  <si>
-    <t>6161678223</t>
-  </si>
-  <si>
-    <t>11999592</t>
-  </si>
-  <si>
-    <t>6161059919</t>
-  </si>
-  <si>
-    <t>11999593</t>
-  </si>
-  <si>
-    <t>6161553160</t>
-  </si>
-  <si>
-    <t>11999595</t>
-  </si>
-  <si>
-    <t>6161110002</t>
-  </si>
-  <si>
-    <t>11999596</t>
-  </si>
-  <si>
-    <t>6161466144</t>
-  </si>
-  <si>
-    <t>11999597</t>
-  </si>
-  <si>
-    <t>6161507150</t>
-  </si>
-  <si>
-    <t>11999598</t>
-  </si>
-  <si>
-    <t>6161958753</t>
-  </si>
-  <si>
-    <t>11999599</t>
-  </si>
-  <si>
-    <t>6161437002</t>
-  </si>
-  <si>
-    <t>11999601</t>
-  </si>
-  <si>
-    <t>6161509058</t>
-  </si>
-  <si>
-    <t>11999605</t>
-  </si>
-  <si>
-    <t>6161109872</t>
-  </si>
-  <si>
-    <t>11999618</t>
-  </si>
-  <si>
-    <t>6161274224</t>
-  </si>
-  <si>
-    <t>11999619</t>
-  </si>
-  <si>
-    <t>6161727035</t>
-  </si>
-  <si>
-    <t>11999640</t>
-  </si>
-  <si>
-    <t>6161770903</t>
-  </si>
-  <si>
-    <t>11999641</t>
-  </si>
-  <si>
-    <t>6161464377</t>
-  </si>
-  <si>
-    <t>11999643</t>
-  </si>
-  <si>
-    <t>6161948486</t>
-  </si>
-  <si>
-    <t>11999644</t>
-  </si>
-  <si>
-    <t>6161647845</t>
-  </si>
-  <si>
-    <t>11999646</t>
-  </si>
-  <si>
-    <t>6161438362</t>
-  </si>
-  <si>
-    <t>11999647</t>
-  </si>
-  <si>
-    <t>6161646383</t>
-  </si>
-  <si>
-    <t>11999648</t>
-  </si>
-  <si>
-    <t>6161366451</t>
-  </si>
-  <si>
-    <t>11999649</t>
-  </si>
-  <si>
-    <t>6161720524</t>
-  </si>
-  <si>
-    <t>11999651</t>
-  </si>
-  <si>
-    <t>6161020168</t>
-  </si>
-  <si>
-    <t>11999652</t>
-  </si>
-  <si>
-    <t>6161166155</t>
-  </si>
-  <si>
-    <t>11999653</t>
-  </si>
-  <si>
-    <t>6161067151</t>
-  </si>
-  <si>
-    <t>11999654</t>
-  </si>
-  <si>
-    <t>6161488748</t>
-  </si>
-  <si>
-    <t>11999655</t>
-  </si>
-  <si>
-    <t>6161521606</t>
-  </si>
-  <si>
-    <t>11999656</t>
-  </si>
-  <si>
-    <t>6161472128</t>
-  </si>
-  <si>
-    <t>11999657</t>
-  </si>
-  <si>
-    <t>6161975895</t>
-  </si>
-  <si>
-    <t>11999659</t>
-  </si>
-  <si>
-    <t>6161644920</t>
-  </si>
-  <si>
-    <t>11999660</t>
-  </si>
-  <si>
-    <t>6161954016</t>
-  </si>
-  <si>
-    <t>11999661</t>
-  </si>
-  <si>
-    <t>6161603312</t>
-  </si>
-  <si>
-    <t>11999662</t>
-  </si>
-  <si>
-    <t>6161664616</t>
-  </si>
-  <si>
-    <t>11999663</t>
-  </si>
-  <si>
-    <t>6161138405</t>
-  </si>
-  <si>
-    <t>11999664</t>
-  </si>
-  <si>
-    <t>6161584948</t>
-  </si>
-  <si>
-    <t>11999665</t>
-  </si>
-  <si>
-    <t>6161255708</t>
-  </si>
-  <si>
-    <t>11999666</t>
-  </si>
-  <si>
-    <t>6161789886</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11999667</t>
-  </si>
-  <si>
-    <t>6161092834</t>
-  </si>
-  <si>
-    <t>11999668</t>
-  </si>
-  <si>
-    <t>6161356743</t>
-  </si>
-  <si>
-    <t>11999669</t>
-  </si>
-  <si>
-    <t>6161362497</t>
-  </si>
-  <si>
-    <t>11999670</t>
-  </si>
-  <si>
-    <t>6161927643</t>
-  </si>
-  <si>
-    <t>11999671</t>
-  </si>
-  <si>
-    <t>6161867431</t>
   </si>
   <si>
     <t>11999692</t>
@@ -967,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -975,14 +528,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.51953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="1025" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="1025" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1025,13 +578,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D2" s="6">
         <v>12</v>
